--- a/jadex-applications-micro/Eval2 spcnt=3 platformcnt=10 personinc=100.xlsx
+++ b/jadex-applications-micro/Eval2 spcnt=3 platformcnt=10 personinc=100.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t># of Services</t>
   </si>
@@ -36,6 +36,15 @@
   </si>
   <si>
     <t>Found Services</t>
+  </si>
+  <si>
+    <t>Settings: spcnt=3 platformcnt=10 personinc=100</t>
+  </si>
+  <si>
+    <t>Settings: spcnt=7 platformcnt=10 personinc=100</t>
+  </si>
+  <si>
+    <t>Settings: spcnt=3 platformcnt=40 personinc=25</t>
   </si>
 </sst>
 </file>
@@ -111,12 +120,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -144,19 +150,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -181,7 +184,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -194,10 +197,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$2:$A$62</c:f>
+              <c:f>Tabelle1!$A$2:$A$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -380,16 +383,127 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>61000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$A$2:$A$62</c:f>
+              <c:f>Tabelle1!$A$2:$A$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -572,6 +686,117 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>61000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -598,7 +823,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -611,10 +836,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$2:$A$62</c:f>
+              <c:f>Tabelle1!$A$2:$A$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -797,198 +1022,420 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>61000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$D$2:$D$62</c:f>
+              <c:f>Tabelle1!$D$2:$D$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>549</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1718</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2614</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3514</c:v>
+                  <c:v>2236</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4810</c:v>
+                  <c:v>3730</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5810</c:v>
+                  <c:v>5260</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6710</c:v>
+                  <c:v>6400</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7910</c:v>
+                  <c:v>6700</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8810</c:v>
+                  <c:v>7972</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9710</c:v>
+                  <c:v>8602</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10860</c:v>
+                  <c:v>9600</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11810</c:v>
+                  <c:v>10600</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12710</c:v>
+                  <c:v>11400</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13810</c:v>
+                  <c:v>12600</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14760</c:v>
+                  <c:v>14440</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15832</c:v>
+                  <c:v>14658</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16832</c:v>
+                  <c:v>15500</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17732</c:v>
+                  <c:v>17000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18832</c:v>
+                  <c:v>18135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19846</c:v>
+                  <c:v>19000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20850</c:v>
+                  <c:v>20281</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21850</c:v>
+                  <c:v>20800</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22850</c:v>
+                  <c:v>22100</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23950</c:v>
+                  <c:v>23197</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24850</c:v>
+                  <c:v>24400</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25950</c:v>
+                  <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26850</c:v>
+                  <c:v>26000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27850</c:v>
+                  <c:v>27400</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28850</c:v>
+                  <c:v>28061</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29850</c:v>
+                  <c:v>29000</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>30100</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>31000</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>31950</c:v>
-                </c:pt>
                 <c:pt idx="32">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>33000</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>33900</c:v>
-                </c:pt>
                 <c:pt idx="34">
-                  <c:v>34850</c:v>
+                  <c:v>34000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35850</c:v>
+                  <c:v>35000</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>36200</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>37000</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>37850</c:v>
-                </c:pt>
                 <c:pt idx="38">
-                  <c:v>38850</c:v>
+                  <c:v>38200</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39850</c:v>
+                  <c:v>39000</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40850</c:v>
+                  <c:v>40463</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41850</c:v>
+                  <c:v>41000</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42810</c:v>
+                  <c:v>42412</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43850</c:v>
+                  <c:v>43000</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44200</c:v>
+                  <c:v>44000</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45100</c:v>
+                  <c:v>45001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>42033</c:v>
+                  <c:v>46000</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>42483</c:v>
+                  <c:v>47000</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>43500</c:v>
+                  <c:v>48000</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>44472</c:v>
+                  <c:v>49000</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>45600</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>46500</c:v>
+                  <c:v>51000</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>47500</c:v>
+                  <c:v>52000</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>48500</c:v>
+                  <c:v>53000</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>49500</c:v>
+                  <c:v>54000</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>50477</c:v>
+                  <c:v>55000</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>56812</c:v>
+                  <c:v>56000</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>57063</c:v>
+                  <c:v>57000</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>52300</c:v>
+                  <c:v>58000</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>53200</c:v>
+                  <c:v>59137</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>54100</c:v>
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62200</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63200</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>64211</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>64401</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>64600</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>65400</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>65600</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>65600</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>65800</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>66200</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>66400</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>66600</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>66800</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>67009</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>67200</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>67500</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>67700</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>68000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>68000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>68200</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>68400</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>68600</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>68800</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>69000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>69200</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>69400</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>82800</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>60700</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>65500</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>61000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>54600</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>10156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1031,7 +1478,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1044,192 +1491,303 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$2:$B$62</c:f>
+              <c:f>Tabelle1!$B$2:$B$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>3509</c:v>
+                  <c:v>6494</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2546</c:v>
+                  <c:v>5593</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1980</c:v>
+                  <c:v>4756</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1979</c:v>
+                  <c:v>5562</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3448</c:v>
+                  <c:v>4586</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3181</c:v>
+                  <c:v>3889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1949</c:v>
+                  <c:v>6178</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1973</c:v>
+                  <c:v>3626</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1707</c:v>
+                  <c:v>4111</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1825</c:v>
+                  <c:v>4289</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4216</c:v>
+                  <c:v>3811</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2241</c:v>
+                  <c:v>3502</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1751</c:v>
+                  <c:v>4178</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1895</c:v>
+                  <c:v>3423</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1774</c:v>
+                  <c:v>4649</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3860</c:v>
+                  <c:v>3162</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1748</c:v>
+                  <c:v>4118</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1747</c:v>
+                  <c:v>3693</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5565</c:v>
+                  <c:v>3485</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1902</c:v>
+                  <c:v>3723</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1752</c:v>
+                  <c:v>3527</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4248</c:v>
+                  <c:v>3288</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1752</c:v>
+                  <c:v>4123</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1767</c:v>
+                  <c:v>4420</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1737</c:v>
+                  <c:v>4780</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1870</c:v>
+                  <c:v>3461</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1757</c:v>
+                  <c:v>3557</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1729</c:v>
+                  <c:v>5391</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1798</c:v>
+                  <c:v>3408</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1755</c:v>
+                  <c:v>3967</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10651</c:v>
+                  <c:v>5497</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1809</c:v>
+                  <c:v>3480</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1781</c:v>
+                  <c:v>3925</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1846</c:v>
+                  <c:v>4618</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1838</c:v>
+                  <c:v>5296</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1936</c:v>
+                  <c:v>3216</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1815</c:v>
+                  <c:v>3379</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1825</c:v>
+                  <c:v>3590</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1817</c:v>
+                  <c:v>4294</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1984</c:v>
+                  <c:v>5641</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>12824</c:v>
+                  <c:v>6617</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1798</c:v>
+                  <c:v>5804</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4691</c:v>
+                  <c:v>7788</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1825</c:v>
+                  <c:v>6135</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1980</c:v>
+                  <c:v>7626</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6493</c:v>
+                  <c:v>8287</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>14959</c:v>
+                  <c:v>8411</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1713</c:v>
+                  <c:v>4760</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1869</c:v>
+                  <c:v>7565</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>10333</c:v>
+                  <c:v>6622</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>15113</c:v>
+                  <c:v>7456</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1799</c:v>
+                  <c:v>7165</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1763</c:v>
+                  <c:v>4530</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2899</c:v>
+                  <c:v>3734</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6806</c:v>
+                  <c:v>3732</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>15984</c:v>
+                  <c:v>4270</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>13950</c:v>
+                  <c:v>4669</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>10841</c:v>
+                  <c:v>3796</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1927</c:v>
+                  <c:v>3990</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1927</c:v>
+                  <c:v>5703</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3016</c:v>
+                  <c:v>4870</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7293</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>12475</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9718</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5271</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9294</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6652</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4361</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7867</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5953</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4417</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7952</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8395</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7589</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6902</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5607</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7582</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8066</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7033</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7194</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6943</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5977</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5779</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6590</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7606</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6907</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6039</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7014</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6665</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6736</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6408</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5321</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>11049</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>12044</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>11245</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>24406</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>22699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1256,7 +1814,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -1269,192 +1827,303 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$2:$C$62</c:f>
+              <c:f>Tabelle1!$C$2:$C$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>150</c:v>
+                  <c:v>262</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>247</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>331</c:v>
+                  <c:v>593</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>468</c:v>
+                  <c:v>995</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>895</c:v>
+                  <c:v>1253</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>885</c:v>
+                  <c:v>1923</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1341</c:v>
+                  <c:v>1804</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1344</c:v>
+                  <c:v>2202</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1737</c:v>
+                  <c:v>2437</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2568</c:v>
+                  <c:v>2687</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1547</c:v>
+                  <c:v>3092</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1639</c:v>
+                  <c:v>5494</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2064</c:v>
+                  <c:v>3721</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4310</c:v>
+                  <c:v>3797</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2119</c:v>
+                  <c:v>4319</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2311</c:v>
+                  <c:v>4483</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2321</c:v>
+                  <c:v>5727</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4492</c:v>
+                  <c:v>5708</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3494</c:v>
+                  <c:v>5167</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2626</c:v>
+                  <c:v>6432</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6183</c:v>
+                  <c:v>5946</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2853</c:v>
+                  <c:v>6827</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2939</c:v>
+                  <c:v>5954</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9110</c:v>
+                  <c:v>6699</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3169</c:v>
+                  <c:v>12120</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3335</c:v>
+                  <c:v>6627</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10049</c:v>
+                  <c:v>7157</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3714</c:v>
+                  <c:v>9057</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3661</c:v>
+                  <c:v>8137</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3976</c:v>
+                  <c:v>8706</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3967</c:v>
+                  <c:v>9800</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>11226</c:v>
+                  <c:v>9592</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4397</c:v>
+                  <c:v>8497</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>14794</c:v>
+                  <c:v>9881</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4676</c:v>
+                  <c:v>11157</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>14086</c:v>
+                  <c:v>11206</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4772</c:v>
+                  <c:v>11665</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>14650</c:v>
+                  <c:v>10329</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5280</c:v>
+                  <c:v>10886</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5517</c:v>
+                  <c:v>16645</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>12581</c:v>
+                  <c:v>10773</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5648</c:v>
+                  <c:v>15138</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>16719</c:v>
+                  <c:v>12474</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>13132</c:v>
+                  <c:v>11127</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5975</c:v>
+                  <c:v>11292</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5483</c:v>
+                  <c:v>12225</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>17711</c:v>
+                  <c:v>12405</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>10173</c:v>
+                  <c:v>13064</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5686</c:v>
+                  <c:v>14130</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5835</c:v>
+                  <c:v>16709</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>18145</c:v>
+                  <c:v>16578</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>18506</c:v>
+                  <c:v>15868</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>16671</c:v>
+                  <c:v>16279</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>8179</c:v>
+                  <c:v>14732</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>10008</c:v>
+                  <c:v>16770</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>14033</c:v>
+                  <c:v>15910</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>22394</c:v>
+                  <c:v>16069</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>22095</c:v>
+                  <c:v>19055</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>22704</c:v>
+                  <c:v>17343</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>21647</c:v>
+                  <c:v>15442</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>17997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>18929</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>20956</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>20284</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>19800</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>21414</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>18793</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>17673</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>19371</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>19074</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>16808</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>21938</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>21992</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>25251</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>21948</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>24764</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>20888</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>19726</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>22132</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>24419</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>18983</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>19442</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>19972</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>20191</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>22488</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>22094</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>20245</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>22767</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>20075</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>23634</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>26581</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>32272</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>25944</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>32045</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>34131</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44643</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7723</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1463,6 +2132,424 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-FF54-486C-B248-FC407F0B2126}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Creation Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$G$2:$G$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="98"/>
+                <c:pt idx="0">
+                  <c:v>7922</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5259</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6779</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4179</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7369</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4188</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4504</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4526</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3893</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4116</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4279</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4015</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4351</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5124</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3757</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3989</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3589</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3944</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4114</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-173E-48C5-AC38-8771ABD39A92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Search Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$H$2:$H$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="98"/>
+                <c:pt idx="0">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>857</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>908</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1736</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1929</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1630</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2381</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2690</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2602</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6538</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2844</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4366</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3479</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4697</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4635</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5371</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5365</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5930</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5587</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-173E-48C5-AC38-8771ABD39A92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Creation Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$L$2:$L$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="98"/>
+                <c:pt idx="0">
+                  <c:v>9862</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5673</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8414</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6506</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6297</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5171</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6915</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5239</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6655</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6545</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5164</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7436</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4957</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5096</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8385</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5214</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5069</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11418</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10369</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-173E-48C5-AC38-8771ABD39A92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Search Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$M$2:$M$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="98"/>
+                <c:pt idx="0">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1179</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1216</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1819</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1560</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2579</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2784</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3240</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3972</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3929</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8032</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8754</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4833</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7584</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5976</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5872</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9136</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6893</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7203</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8148</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-173E-48C5-AC38-8771ABD39A92}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1493,12 +2580,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1526,19 +2610,16 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1550,7 +2631,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="tx2">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -1566,17 +2647,14 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="496078704"/>
@@ -1590,6 +2668,7 @@
         <c:axId val="496078704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1597,7 +2676,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -1614,12 +2693,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1628,23 +2704,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t># of created</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> vs. </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>found</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Services</a:t>
+                  <a:t># of created vs. found Services</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1663,19 +2723,16 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1697,17 +2754,14 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="496077064"/>
@@ -1718,7 +2772,7 @@
         <c:axId val="490332008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="30000"/>
+          <c:max val="60000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -1729,12 +2783,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1762,24 +2813,21 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1796,22 +2844,22 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="490329384"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+        </c:dispUnits>
       </c:valAx>
       <c:catAx>
         <c:axId val="490329384"/>
@@ -1820,7 +2868,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="t"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="490332008"/>
@@ -1839,7 +2887,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1856,17 +2904,14 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1880,7 +2925,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1896,7 +2941,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1948,33 +2993,27 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="326">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1989,7 +3028,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1997,7 +3036,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2005,17 +3044,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -2024,9 +3060,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -2049,45 +3084,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2096,36 +3121,32 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="12700">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt2"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2141,21 +3162,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2189,17 +3205,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2208,14 +3224,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2227,26 +3242,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2260,17 +3269,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2279,17 +3287,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="75000"/>
             <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2298,17 +3305,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2317,27 +3323,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2345,11 +3348,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2357,17 +3368,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -2376,12 +3387,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2390,14 +3398,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2406,10 +3414,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -2418,7 +3423,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2439,10 +3444,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -2451,14 +3453,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2467,16 +3463,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2761,15 +3757,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2782,439 +3778,964 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000</v>
       </c>
       <c r="B2">
-        <v>3509</v>
+        <v>6494</v>
       </c>
       <c r="C2">
-        <v>150</v>
+        <v>262</v>
       </c>
       <c r="D2">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="F2">
+        <v>1000</v>
+      </c>
+      <c r="G2">
+        <v>7922</v>
+      </c>
+      <c r="H2">
+        <v>273</v>
+      </c>
+      <c r="I2">
+        <v>500</v>
+      </c>
+      <c r="K2">
+        <v>1000</v>
+      </c>
+      <c r="L2">
+        <v>9862</v>
+      </c>
+      <c r="M2">
+        <v>233</v>
+      </c>
+      <c r="N2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>2546</v>
+        <v>5593</v>
       </c>
       <c r="C3">
-        <v>247</v>
+        <v>367</v>
       </c>
       <c r="D3">
-        <v>1718</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1100</v>
+      </c>
+      <c r="F3">
+        <v>2000</v>
+      </c>
+      <c r="G3">
+        <v>5259</v>
+      </c>
+      <c r="H3">
+        <v>846</v>
+      </c>
+      <c r="I3">
+        <v>1000</v>
+      </c>
+      <c r="K3">
+        <v>2000</v>
+      </c>
+      <c r="L3">
+        <v>10183</v>
+      </c>
+      <c r="M3">
+        <v>1179</v>
+      </c>
+      <c r="N3">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3000</v>
       </c>
       <c r="B4">
-        <v>1980</v>
+        <v>4756</v>
       </c>
       <c r="C4">
-        <v>331</v>
+        <v>593</v>
       </c>
       <c r="D4">
-        <v>2614</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1500</v>
+      </c>
+      <c r="F4">
+        <v>3000</v>
+      </c>
+      <c r="G4">
+        <v>5000</v>
+      </c>
+      <c r="H4">
+        <v>857</v>
+      </c>
+      <c r="I4">
+        <v>1800</v>
+      </c>
+      <c r="K4">
+        <v>3000</v>
+      </c>
+      <c r="L4">
+        <v>5673</v>
+      </c>
+      <c r="M4">
+        <v>1216</v>
+      </c>
+      <c r="N4">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4000</v>
       </c>
       <c r="B5">
-        <v>1979</v>
+        <v>5562</v>
       </c>
       <c r="C5">
-        <v>468</v>
+        <v>995</v>
       </c>
       <c r="D5">
-        <v>3514</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2236</v>
+      </c>
+      <c r="F5">
+        <v>4000</v>
+      </c>
+      <c r="G5">
+        <v>6779</v>
+      </c>
+      <c r="H5">
+        <v>908</v>
+      </c>
+      <c r="I5">
+        <v>3100</v>
+      </c>
+      <c r="K5">
+        <v>4000</v>
+      </c>
+      <c r="L5">
+        <v>8414</v>
+      </c>
+      <c r="M5">
+        <v>1819</v>
+      </c>
+      <c r="N5">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5000</v>
       </c>
       <c r="B6">
-        <v>3448</v>
+        <v>4586</v>
       </c>
       <c r="C6">
         <v>1006</v>
       </c>
       <c r="D6">
-        <v>4810</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3730</v>
+      </c>
+      <c r="F6">
+        <v>5000</v>
+      </c>
+      <c r="G6">
+        <v>4179</v>
+      </c>
+      <c r="H6">
+        <v>1736</v>
+      </c>
+      <c r="I6">
+        <v>3600</v>
+      </c>
+      <c r="K6">
+        <v>5000</v>
+      </c>
+      <c r="L6">
+        <v>6506</v>
+      </c>
+      <c r="M6">
+        <v>1560</v>
+      </c>
+      <c r="N6">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6000</v>
       </c>
       <c r="B7">
-        <v>3181</v>
+        <v>3889</v>
       </c>
       <c r="C7">
-        <v>895</v>
+        <v>1253</v>
       </c>
       <c r="D7">
-        <v>5810</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5260</v>
+      </c>
+      <c r="F7">
+        <v>6000</v>
+      </c>
+      <c r="G7">
+        <v>7369</v>
+      </c>
+      <c r="H7">
+        <v>1929</v>
+      </c>
+      <c r="I7">
+        <v>4600</v>
+      </c>
+      <c r="K7">
+        <v>6000</v>
+      </c>
+      <c r="L7">
+        <v>6348</v>
+      </c>
+      <c r="M7">
+        <v>2018</v>
+      </c>
+      <c r="N7">
+        <v>5151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7000</v>
       </c>
       <c r="B8">
-        <v>1949</v>
+        <v>6178</v>
       </c>
       <c r="C8">
-        <v>885</v>
+        <v>1923</v>
       </c>
       <c r="D8">
-        <v>6710</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6400</v>
+      </c>
+      <c r="F8">
+        <v>7000</v>
+      </c>
+      <c r="G8">
+        <v>4188</v>
+      </c>
+      <c r="H8">
+        <v>1630</v>
+      </c>
+      <c r="I8">
+        <v>5700</v>
+      </c>
+      <c r="K8">
+        <v>7000</v>
+      </c>
+      <c r="L8">
+        <v>6297</v>
+      </c>
+      <c r="M8">
+        <v>2579</v>
+      </c>
+      <c r="N8">
+        <v>6375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8000</v>
       </c>
       <c r="B9">
-        <v>1973</v>
+        <v>3626</v>
       </c>
       <c r="C9">
-        <v>1341</v>
+        <v>1804</v>
       </c>
       <c r="D9">
-        <v>7910</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6700</v>
+      </c>
+      <c r="F9">
+        <v>8000</v>
+      </c>
+      <c r="G9">
+        <v>4504</v>
+      </c>
+      <c r="H9">
+        <v>2381</v>
+      </c>
+      <c r="I9">
+        <v>7100</v>
+      </c>
+      <c r="K9">
+        <v>8000</v>
+      </c>
+      <c r="L9">
+        <v>5171</v>
+      </c>
+      <c r="M9">
+        <v>2784</v>
+      </c>
+      <c r="N9">
+        <v>7214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9000</v>
       </c>
       <c r="B10">
-        <v>1707</v>
+        <v>4111</v>
       </c>
       <c r="C10">
-        <v>1344</v>
+        <v>2202</v>
       </c>
       <c r="D10">
-        <v>8810</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7972</v>
+      </c>
+      <c r="F10">
+        <v>9000</v>
+      </c>
+      <c r="G10">
+        <v>4526</v>
+      </c>
+      <c r="H10">
+        <v>2690</v>
+      </c>
+      <c r="I10">
+        <v>8000</v>
+      </c>
+      <c r="K10">
+        <v>9000</v>
+      </c>
+      <c r="L10">
+        <v>6915</v>
+      </c>
+      <c r="M10">
+        <v>3240</v>
+      </c>
+      <c r="N10">
+        <v>8264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10000</v>
       </c>
       <c r="B11">
-        <v>1825</v>
+        <v>4289</v>
       </c>
       <c r="C11">
-        <v>1737</v>
+        <v>2437</v>
       </c>
       <c r="D11">
-        <v>9710</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8602</v>
+      </c>
+      <c r="F11">
+        <v>10000</v>
+      </c>
+      <c r="G11">
+        <v>3893</v>
+      </c>
+      <c r="H11">
+        <v>2602</v>
+      </c>
+      <c r="I11">
+        <v>8900</v>
+      </c>
+      <c r="K11">
+        <v>10000</v>
+      </c>
+      <c r="L11">
+        <v>5239</v>
+      </c>
+      <c r="M11">
+        <v>3972</v>
+      </c>
+      <c r="N11">
+        <v>9225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11000</v>
       </c>
       <c r="B12">
-        <v>4216</v>
+        <v>3811</v>
       </c>
       <c r="C12">
-        <v>2568</v>
+        <v>2687</v>
       </c>
       <c r="D12">
-        <v>10860</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9600</v>
+      </c>
+      <c r="F12">
+        <v>11000</v>
+      </c>
+      <c r="G12">
+        <v>4116</v>
+      </c>
+      <c r="H12">
+        <v>6538</v>
+      </c>
+      <c r="I12">
+        <v>9900</v>
+      </c>
+      <c r="K12">
+        <v>11000</v>
+      </c>
+      <c r="L12">
+        <v>6655</v>
+      </c>
+      <c r="M12">
+        <v>3929</v>
+      </c>
+      <c r="N12">
+        <v>10351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12000</v>
       </c>
       <c r="B13">
-        <v>2241</v>
+        <v>3502</v>
       </c>
       <c r="C13">
-        <v>1547</v>
+        <v>3092</v>
       </c>
       <c r="D13">
-        <v>11810</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10600</v>
+      </c>
+      <c r="F13">
+        <v>12000</v>
+      </c>
+      <c r="G13">
+        <v>4279</v>
+      </c>
+      <c r="H13">
+        <v>2844</v>
+      </c>
+      <c r="I13">
+        <v>11103</v>
+      </c>
+      <c r="K13">
+        <v>12000</v>
+      </c>
+      <c r="L13">
+        <v>6545</v>
+      </c>
+      <c r="M13">
+        <v>8032</v>
+      </c>
+      <c r="N13">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13000</v>
       </c>
       <c r="B14">
-        <v>1751</v>
+        <v>4178</v>
       </c>
       <c r="C14">
-        <v>1639</v>
+        <v>5494</v>
       </c>
       <c r="D14">
-        <v>12710</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11400</v>
+      </c>
+      <c r="F14">
+        <v>13000</v>
+      </c>
+      <c r="G14">
+        <v>4015</v>
+      </c>
+      <c r="H14">
+        <v>4366</v>
+      </c>
+      <c r="I14">
+        <v>11700</v>
+      </c>
+      <c r="K14">
+        <v>13000</v>
+      </c>
+      <c r="L14">
+        <v>5164</v>
+      </c>
+      <c r="M14">
+        <v>8754</v>
+      </c>
+      <c r="N14">
+        <v>12054</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14000</v>
       </c>
       <c r="B15">
-        <v>1895</v>
+        <v>3423</v>
       </c>
       <c r="C15">
-        <v>2064</v>
+        <v>3721</v>
       </c>
       <c r="D15">
-        <v>13810</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12600</v>
+      </c>
+      <c r="F15">
+        <v>14000</v>
+      </c>
+      <c r="G15">
+        <v>4351</v>
+      </c>
+      <c r="H15">
+        <v>3479</v>
+      </c>
+      <c r="I15">
+        <v>13100</v>
+      </c>
+      <c r="K15">
+        <v>14000</v>
+      </c>
+      <c r="L15">
+        <v>7436</v>
+      </c>
+      <c r="M15">
+        <v>4833</v>
+      </c>
+      <c r="N15">
+        <v>13050</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15000</v>
       </c>
       <c r="B16">
-        <v>1774</v>
+        <v>4649</v>
       </c>
       <c r="C16">
-        <v>4310</v>
+        <v>3797</v>
       </c>
       <c r="D16">
-        <v>14760</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14440</v>
+      </c>
+      <c r="F16">
+        <v>15000</v>
+      </c>
+      <c r="G16">
+        <v>5124</v>
+      </c>
+      <c r="H16">
+        <v>4697</v>
+      </c>
+      <c r="I16">
+        <v>14219</v>
+      </c>
+      <c r="K16">
+        <v>15000</v>
+      </c>
+      <c r="L16">
+        <v>4957</v>
+      </c>
+      <c r="M16">
+        <v>7584</v>
+      </c>
+      <c r="N16">
+        <v>14153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16000</v>
       </c>
       <c r="B17">
-        <v>3860</v>
+        <v>3162</v>
       </c>
       <c r="C17">
-        <v>2119</v>
+        <v>4319</v>
       </c>
       <c r="D17">
-        <v>15832</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14658</v>
+      </c>
+      <c r="F17">
+        <v>16000</v>
+      </c>
+      <c r="G17">
+        <v>3757</v>
+      </c>
+      <c r="H17">
+        <v>4635</v>
+      </c>
+      <c r="I17">
+        <v>15000</v>
+      </c>
+      <c r="K17">
+        <v>16000</v>
+      </c>
+      <c r="L17">
+        <v>5096</v>
+      </c>
+      <c r="M17">
+        <v>5976</v>
+      </c>
+      <c r="N17">
+        <v>15275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17000</v>
       </c>
       <c r="B18">
-        <v>1748</v>
+        <v>4118</v>
       </c>
       <c r="C18">
-        <v>2311</v>
+        <v>4483</v>
       </c>
       <c r="D18">
-        <v>16832</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15500</v>
+      </c>
+      <c r="F18">
+        <v>17000</v>
+      </c>
+      <c r="G18">
+        <v>3989</v>
+      </c>
+      <c r="H18">
+        <v>5371</v>
+      </c>
+      <c r="I18">
+        <v>16327</v>
+      </c>
+      <c r="K18">
+        <v>17000</v>
+      </c>
+      <c r="L18">
+        <v>8385</v>
+      </c>
+      <c r="M18">
+        <v>5872</v>
+      </c>
+      <c r="N18">
+        <v>16416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18000</v>
       </c>
       <c r="B19">
-        <v>1747</v>
+        <v>3693</v>
       </c>
       <c r="C19">
-        <v>2321</v>
+        <v>5727</v>
       </c>
       <c r="D19">
-        <v>17732</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17000</v>
+      </c>
+      <c r="F19">
+        <v>18000</v>
+      </c>
+      <c r="G19">
+        <v>3589</v>
+      </c>
+      <c r="H19">
+        <v>5365</v>
+      </c>
+      <c r="I19">
+        <v>17100</v>
+      </c>
+      <c r="K19">
+        <v>18000</v>
+      </c>
+      <c r="L19">
+        <v>5214</v>
+      </c>
+      <c r="M19">
+        <v>9136</v>
+      </c>
+      <c r="N19">
+        <v>17070</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19000</v>
       </c>
       <c r="B20">
-        <v>5565</v>
+        <v>3485</v>
       </c>
       <c r="C20">
-        <v>4492</v>
+        <v>5708</v>
       </c>
       <c r="D20">
-        <v>18832</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18135</v>
+      </c>
+      <c r="F20">
+        <v>19000</v>
+      </c>
+      <c r="G20">
+        <v>3944</v>
+      </c>
+      <c r="H20">
+        <v>5930</v>
+      </c>
+      <c r="I20">
+        <v>17801</v>
+      </c>
+      <c r="K20">
+        <v>19000</v>
+      </c>
+      <c r="L20">
+        <v>5069</v>
+      </c>
+      <c r="M20">
+        <v>6893</v>
+      </c>
+      <c r="N20">
+        <v>18001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20000</v>
       </c>
       <c r="B21">
-        <v>1902</v>
+        <v>3723</v>
       </c>
       <c r="C21">
-        <v>3494</v>
+        <v>5167</v>
       </c>
       <c r="D21">
-        <v>19846</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19000</v>
+      </c>
+      <c r="F21">
+        <v>20000</v>
+      </c>
+      <c r="G21">
+        <v>4114</v>
+      </c>
+      <c r="H21">
+        <v>5587</v>
+      </c>
+      <c r="I21">
+        <v>19500</v>
+      </c>
+      <c r="K21">
+        <v>20000</v>
+      </c>
+      <c r="L21">
+        <v>11418</v>
+      </c>
+      <c r="M21">
+        <v>7203</v>
+      </c>
+      <c r="N21">
+        <v>19886</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21000</v>
       </c>
       <c r="B22">
-        <v>1752</v>
+        <v>3527</v>
       </c>
       <c r="C22">
-        <v>2626</v>
+        <v>6432</v>
       </c>
       <c r="D22">
-        <v>20850</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20281</v>
+      </c>
+      <c r="K22">
+        <v>21000</v>
+      </c>
+      <c r="L22">
+        <v>10369</v>
+      </c>
+      <c r="M22">
+        <v>8148</v>
+      </c>
+      <c r="N22">
+        <v>20475</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22000</v>
       </c>
       <c r="B23">
-        <v>4248</v>
+        <v>3288</v>
       </c>
       <c r="C23">
-        <v>6183</v>
+        <v>5946</v>
       </c>
       <c r="D23">
-        <v>21850</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23000</v>
       </c>
       <c r="B24">
-        <v>1752</v>
+        <v>4123</v>
       </c>
       <c r="C24">
-        <v>2853</v>
+        <v>6827</v>
       </c>
       <c r="D24">
-        <v>22850</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24000</v>
       </c>
       <c r="B25">
-        <v>1767</v>
+        <v>4420</v>
       </c>
       <c r="C25">
-        <v>2939</v>
+        <v>5954</v>
       </c>
       <c r="D25">
-        <v>23950</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25000</v>
       </c>
       <c r="B26">
-        <v>1737</v>
+        <v>4780</v>
       </c>
       <c r="C26">
-        <v>9110</v>
+        <v>6699</v>
       </c>
       <c r="D26">
-        <v>24850</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26000</v>
       </c>
       <c r="B27">
-        <v>1870</v>
+        <v>3461</v>
       </c>
       <c r="C27">
-        <v>3169</v>
+        <v>12120</v>
       </c>
       <c r="D27">
-        <v>25950</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27000</v>
       </c>
       <c r="B28">
-        <v>1757</v>
+        <v>3557</v>
       </c>
       <c r="C28">
-        <v>3335</v>
+        <v>6627</v>
       </c>
       <c r="D28">
-        <v>26850</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28000</v>
       </c>
       <c r="B29">
-        <v>1729</v>
+        <v>5391</v>
       </c>
       <c r="C29">
-        <v>10049</v>
+        <v>7157</v>
       </c>
       <c r="D29">
-        <v>27850</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29000</v>
       </c>
       <c r="B30">
-        <v>1798</v>
+        <v>3408</v>
       </c>
       <c r="C30">
-        <v>3714</v>
+        <v>9057</v>
       </c>
       <c r="D30">
-        <v>28850</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28061</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30000</v>
       </c>
       <c r="B31">
-        <v>1755</v>
+        <v>3967</v>
       </c>
       <c r="C31">
-        <v>3661</v>
+        <v>8137</v>
       </c>
       <c r="D31">
-        <v>29850</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31000</v>
       </c>
       <c r="B32">
-        <v>10651</v>
+        <v>5497</v>
       </c>
       <c r="C32">
-        <v>3976</v>
+        <v>8706</v>
       </c>
       <c r="D32">
-        <v>31000</v>
+        <v>30100</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3222,13 +4743,13 @@
         <v>32000</v>
       </c>
       <c r="B33">
-        <v>1809</v>
+        <v>3480</v>
       </c>
       <c r="C33">
-        <v>3967</v>
+        <v>9800</v>
       </c>
       <c r="D33">
-        <v>31950</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3236,13 +4757,13 @@
         <v>33000</v>
       </c>
       <c r="B34">
-        <v>1781</v>
+        <v>3925</v>
       </c>
       <c r="C34">
-        <v>11226</v>
+        <v>9592</v>
       </c>
       <c r="D34">
-        <v>33000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3250,13 +4771,13 @@
         <v>34000</v>
       </c>
       <c r="B35">
-        <v>1846</v>
+        <v>4618</v>
       </c>
       <c r="C35">
-        <v>4397</v>
+        <v>8497</v>
       </c>
       <c r="D35">
-        <v>33900</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -3264,13 +4785,13 @@
         <v>35000</v>
       </c>
       <c r="B36">
-        <v>1838</v>
+        <v>5296</v>
       </c>
       <c r="C36">
-        <v>14794</v>
+        <v>9881</v>
       </c>
       <c r="D36">
-        <v>34850</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3278,13 +4799,13 @@
         <v>36000</v>
       </c>
       <c r="B37">
-        <v>1936</v>
+        <v>3216</v>
       </c>
       <c r="C37">
-        <v>4676</v>
+        <v>11157</v>
       </c>
       <c r="D37">
-        <v>35850</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -3292,13 +4813,13 @@
         <v>37000</v>
       </c>
       <c r="B38">
-        <v>1815</v>
+        <v>3379</v>
       </c>
       <c r="C38">
-        <v>14086</v>
+        <v>11206</v>
       </c>
       <c r="D38">
-        <v>37000</v>
+        <v>36200</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3306,13 +4827,13 @@
         <v>38000</v>
       </c>
       <c r="B39">
-        <v>1825</v>
+        <v>3590</v>
       </c>
       <c r="C39">
-        <v>4772</v>
+        <v>11665</v>
       </c>
       <c r="D39">
-        <v>37850</v>
+        <v>37000</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3320,13 +4841,13 @@
         <v>39000</v>
       </c>
       <c r="B40">
-        <v>1817</v>
+        <v>4294</v>
       </c>
       <c r="C40">
-        <v>14650</v>
+        <v>10329</v>
       </c>
       <c r="D40">
-        <v>38850</v>
+        <v>38200</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3334,13 +4855,13 @@
         <v>40000</v>
       </c>
       <c r="B41">
-        <v>1984</v>
+        <v>5641</v>
       </c>
       <c r="C41">
-        <v>5280</v>
+        <v>10886</v>
       </c>
       <c r="D41">
-        <v>39850</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3348,13 +4869,13 @@
         <v>41000</v>
       </c>
       <c r="B42">
-        <v>12824</v>
+        <v>6617</v>
       </c>
       <c r="C42">
-        <v>5517</v>
+        <v>16645</v>
       </c>
       <c r="D42">
-        <v>40850</v>
+        <v>40463</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3362,13 +4883,13 @@
         <v>42000</v>
       </c>
       <c r="B43">
-        <v>1798</v>
+        <v>5804</v>
       </c>
       <c r="C43">
-        <v>12581</v>
+        <v>10773</v>
       </c>
       <c r="D43">
-        <v>41850</v>
+        <v>41000</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3376,13 +4897,13 @@
         <v>43000</v>
       </c>
       <c r="B44">
-        <v>4691</v>
+        <v>7788</v>
       </c>
       <c r="C44">
-        <v>5648</v>
+        <v>15138</v>
       </c>
       <c r="D44">
-        <v>42810</v>
+        <v>42412</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3390,13 +4911,13 @@
         <v>44000</v>
       </c>
       <c r="B45">
-        <v>1825</v>
+        <v>6135</v>
       </c>
       <c r="C45">
-        <v>16719</v>
+        <v>12474</v>
       </c>
       <c r="D45">
-        <v>43850</v>
+        <v>43000</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3404,13 +4925,13 @@
         <v>45000</v>
       </c>
       <c r="B46">
-        <v>1980</v>
+        <v>7626</v>
       </c>
       <c r="C46">
-        <v>13132</v>
+        <v>11127</v>
       </c>
       <c r="D46">
-        <v>44200</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3418,13 +4939,13 @@
         <v>46000</v>
       </c>
       <c r="B47">
-        <v>6493</v>
+        <v>8287</v>
       </c>
       <c r="C47">
-        <v>5975</v>
+        <v>11292</v>
       </c>
       <c r="D47">
-        <v>45100</v>
+        <v>45001</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3432,13 +4953,13 @@
         <v>47000</v>
       </c>
       <c r="B48">
-        <v>14959</v>
+        <v>8411</v>
       </c>
       <c r="C48">
-        <v>5483</v>
+        <v>12225</v>
       </c>
       <c r="D48">
-        <v>42033</v>
+        <v>46000</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -3446,13 +4967,13 @@
         <v>48000</v>
       </c>
       <c r="B49">
-        <v>1713</v>
+        <v>4760</v>
       </c>
       <c r="C49">
-        <v>17711</v>
+        <v>12405</v>
       </c>
       <c r="D49">
-        <v>42483</v>
+        <v>47000</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3460,13 +4981,13 @@
         <v>49000</v>
       </c>
       <c r="B50">
-        <v>1869</v>
+        <v>7565</v>
       </c>
       <c r="C50">
-        <v>10173</v>
+        <v>13064</v>
       </c>
       <c r="D50">
-        <v>43500</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3474,13 +4995,13 @@
         <v>50000</v>
       </c>
       <c r="B51">
-        <v>10333</v>
+        <v>6622</v>
       </c>
       <c r="C51">
-        <v>5686</v>
+        <v>14130</v>
       </c>
       <c r="D51">
-        <v>44472</v>
+        <v>49000</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3488,13 +5009,13 @@
         <v>51000</v>
       </c>
       <c r="B52">
-        <v>15113</v>
+        <v>7456</v>
       </c>
       <c r="C52">
-        <v>5835</v>
+        <v>16709</v>
       </c>
       <c r="D52">
-        <v>45600</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -3502,13 +5023,13 @@
         <v>52000</v>
       </c>
       <c r="B53">
-        <v>1799</v>
+        <v>7165</v>
       </c>
       <c r="C53">
-        <v>18145</v>
+        <v>16578</v>
       </c>
       <c r="D53">
-        <v>46500</v>
+        <v>51000</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -3516,13 +5037,13 @@
         <v>53000</v>
       </c>
       <c r="B54">
-        <v>1763</v>
+        <v>4530</v>
       </c>
       <c r="C54">
-        <v>18506</v>
+        <v>15868</v>
       </c>
       <c r="D54">
-        <v>47500</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3530,13 +5051,13 @@
         <v>54000</v>
       </c>
       <c r="B55">
-        <v>2899</v>
+        <v>3734</v>
       </c>
       <c r="C55">
-        <v>16671</v>
+        <v>16279</v>
       </c>
       <c r="D55">
-        <v>48500</v>
+        <v>53000</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -3544,13 +5065,13 @@
         <v>55000</v>
       </c>
       <c r="B56">
-        <v>6806</v>
+        <v>3732</v>
       </c>
       <c r="C56">
-        <v>8179</v>
+        <v>14732</v>
       </c>
       <c r="D56">
-        <v>49500</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -3558,13 +5079,13 @@
         <v>56000</v>
       </c>
       <c r="B57">
-        <v>15984</v>
+        <v>4270</v>
       </c>
       <c r="C57">
-        <v>10008</v>
+        <v>16770</v>
       </c>
       <c r="D57">
-        <v>50477</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -3572,13 +5093,13 @@
         <v>57000</v>
       </c>
       <c r="B58">
-        <v>13950</v>
+        <v>4669</v>
       </c>
       <c r="C58">
-        <v>14033</v>
+        <v>15910</v>
       </c>
       <c r="D58">
-        <v>56812</v>
+        <v>56000</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -3586,13 +5107,13 @@
         <v>58000</v>
       </c>
       <c r="B59">
-        <v>10841</v>
+        <v>3796</v>
       </c>
       <c r="C59">
-        <v>22394</v>
+        <v>16069</v>
       </c>
       <c r="D59">
-        <v>57063</v>
+        <v>57000</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -3600,13 +5121,13 @@
         <v>59000</v>
       </c>
       <c r="B60">
-        <v>1927</v>
+        <v>3990</v>
       </c>
       <c r="C60">
-        <v>22095</v>
+        <v>19055</v>
       </c>
       <c r="D60">
-        <v>52300</v>
+        <v>58000</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -3614,13 +5135,13 @@
         <v>60000</v>
       </c>
       <c r="B61">
-        <v>1927</v>
+        <v>5703</v>
       </c>
       <c r="C61">
-        <v>22704</v>
+        <v>17343</v>
       </c>
       <c r="D61">
-        <v>53200</v>
+        <v>59137</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -3628,13 +5149,531 @@
         <v>61000</v>
       </c>
       <c r="B62">
-        <v>3016</v>
+        <v>4870</v>
       </c>
       <c r="C62">
-        <v>21647</v>
+        <v>15442</v>
       </c>
       <c r="D62">
-        <v>54100</v>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62000</v>
+      </c>
+      <c r="B63">
+        <v>7293</v>
+      </c>
+      <c r="C63">
+        <v>17997</v>
+      </c>
+      <c r="D63">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63000</v>
+      </c>
+      <c r="B64">
+        <v>12475</v>
+      </c>
+      <c r="C64">
+        <v>18929</v>
+      </c>
+      <c r="D64">
+        <v>62200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64000</v>
+      </c>
+      <c r="B65">
+        <v>9718</v>
+      </c>
+      <c r="C65">
+        <v>20956</v>
+      </c>
+      <c r="D65">
+        <v>63200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65000</v>
+      </c>
+      <c r="B66">
+        <v>5271</v>
+      </c>
+      <c r="C66">
+        <v>20284</v>
+      </c>
+      <c r="D66">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66000</v>
+      </c>
+      <c r="B67">
+        <v>9294</v>
+      </c>
+      <c r="C67">
+        <v>19800</v>
+      </c>
+      <c r="D67">
+        <v>64211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67000</v>
+      </c>
+      <c r="B68">
+        <v>6652</v>
+      </c>
+      <c r="C68">
+        <v>21414</v>
+      </c>
+      <c r="D68">
+        <v>64401</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68000</v>
+      </c>
+      <c r="B69">
+        <v>4361</v>
+      </c>
+      <c r="C69">
+        <v>18793</v>
+      </c>
+      <c r="D69">
+        <v>64600</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69000</v>
+      </c>
+      <c r="B70">
+        <v>7867</v>
+      </c>
+      <c r="C70">
+        <v>17673</v>
+      </c>
+      <c r="D70">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70000</v>
+      </c>
+      <c r="B71">
+        <v>5953</v>
+      </c>
+      <c r="C71">
+        <v>19371</v>
+      </c>
+      <c r="D71">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71000</v>
+      </c>
+      <c r="B72">
+        <v>4417</v>
+      </c>
+      <c r="C72">
+        <v>19074</v>
+      </c>
+      <c r="D72">
+        <v>65400</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72000</v>
+      </c>
+      <c r="B73">
+        <v>7952</v>
+      </c>
+      <c r="C73">
+        <v>16808</v>
+      </c>
+      <c r="D73">
+        <v>65600</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73000</v>
+      </c>
+      <c r="B74">
+        <v>8395</v>
+      </c>
+      <c r="C74">
+        <v>21938</v>
+      </c>
+      <c r="D74">
+        <v>65600</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74000</v>
+      </c>
+      <c r="B75">
+        <v>7589</v>
+      </c>
+      <c r="C75">
+        <v>21992</v>
+      </c>
+      <c r="D75">
+        <v>65800</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75000</v>
+      </c>
+      <c r="B76">
+        <v>6902</v>
+      </c>
+      <c r="C76">
+        <v>25251</v>
+      </c>
+      <c r="D76">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76000</v>
+      </c>
+      <c r="B77">
+        <v>5607</v>
+      </c>
+      <c r="C77">
+        <v>21948</v>
+      </c>
+      <c r="D77">
+        <v>66200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77000</v>
+      </c>
+      <c r="B78">
+        <v>7582</v>
+      </c>
+      <c r="C78">
+        <v>24764</v>
+      </c>
+      <c r="D78">
+        <v>66400</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78000</v>
+      </c>
+      <c r="B79">
+        <v>8066</v>
+      </c>
+      <c r="C79">
+        <v>20888</v>
+      </c>
+      <c r="D79">
+        <v>66600</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79000</v>
+      </c>
+      <c r="B80">
+        <v>7033</v>
+      </c>
+      <c r="C80">
+        <v>19726</v>
+      </c>
+      <c r="D80">
+        <v>66800</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80000</v>
+      </c>
+      <c r="B81">
+        <v>7194</v>
+      </c>
+      <c r="C81">
+        <v>22132</v>
+      </c>
+      <c r="D81">
+        <v>67009</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81000</v>
+      </c>
+      <c r="B82">
+        <v>6943</v>
+      </c>
+      <c r="C82">
+        <v>24419</v>
+      </c>
+      <c r="D82">
+        <v>67200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82000</v>
+      </c>
+      <c r="B83">
+        <v>5977</v>
+      </c>
+      <c r="C83">
+        <v>18983</v>
+      </c>
+      <c r="D83">
+        <v>67500</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83000</v>
+      </c>
+      <c r="B84">
+        <v>6400</v>
+      </c>
+      <c r="C84">
+        <v>19442</v>
+      </c>
+      <c r="D84">
+        <v>67700</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84000</v>
+      </c>
+      <c r="B85">
+        <v>5779</v>
+      </c>
+      <c r="C85">
+        <v>19972</v>
+      </c>
+      <c r="D85">
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85000</v>
+      </c>
+      <c r="B86">
+        <v>6590</v>
+      </c>
+      <c r="C86">
+        <v>20191</v>
+      </c>
+      <c r="D86">
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86000</v>
+      </c>
+      <c r="B87">
+        <v>7606</v>
+      </c>
+      <c r="C87">
+        <v>22488</v>
+      </c>
+      <c r="D87">
+        <v>68200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87000</v>
+      </c>
+      <c r="B88">
+        <v>6907</v>
+      </c>
+      <c r="C88">
+        <v>22094</v>
+      </c>
+      <c r="D88">
+        <v>68400</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88000</v>
+      </c>
+      <c r="B89">
+        <v>6039</v>
+      </c>
+      <c r="C89">
+        <v>20245</v>
+      </c>
+      <c r="D89">
+        <v>68600</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89000</v>
+      </c>
+      <c r="B90">
+        <v>7014</v>
+      </c>
+      <c r="C90">
+        <v>22767</v>
+      </c>
+      <c r="D90">
+        <v>68800</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90000</v>
+      </c>
+      <c r="B91">
+        <v>6665</v>
+      </c>
+      <c r="C91">
+        <v>20075</v>
+      </c>
+      <c r="D91">
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91000</v>
+      </c>
+      <c r="B92">
+        <v>6736</v>
+      </c>
+      <c r="C92">
+        <v>23634</v>
+      </c>
+      <c r="D92">
+        <v>69200</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92000</v>
+      </c>
+      <c r="B93">
+        <v>6408</v>
+      </c>
+      <c r="C93">
+        <v>26581</v>
+      </c>
+      <c r="D93">
+        <v>69400</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93000</v>
+      </c>
+      <c r="B94">
+        <v>5321</v>
+      </c>
+      <c r="C94">
+        <v>32272</v>
+      </c>
+      <c r="D94">
+        <v>82800</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94000</v>
+      </c>
+      <c r="B95">
+        <v>11049</v>
+      </c>
+      <c r="C95">
+        <v>25944</v>
+      </c>
+      <c r="D95">
+        <v>60700</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95000</v>
+      </c>
+      <c r="B96">
+        <v>12044</v>
+      </c>
+      <c r="C96">
+        <v>32045</v>
+      </c>
+      <c r="D96">
+        <v>65500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96000</v>
+      </c>
+      <c r="B97">
+        <v>11245</v>
+      </c>
+      <c r="C97">
+        <v>34131</v>
+      </c>
+      <c r="D97">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97000</v>
+      </c>
+      <c r="B98">
+        <v>24406</v>
+      </c>
+      <c r="C98">
+        <v>44643</v>
+      </c>
+      <c r="D98">
+        <v>54600</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98000</v>
+      </c>
+      <c r="B99">
+        <v>22699</v>
+      </c>
+      <c r="C99">
+        <v>7723</v>
+      </c>
+      <c r="D99">
+        <v>10156</v>
       </c>
     </row>
   </sheetData>
